--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(T)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(T).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(T)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(T).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tac
-Tacinga - fam. Cactacées (Cactus)
+          <t>Tac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tacinga - fam. Cactacées (Cactus)
 Tacinga braunii
 Tacinga funalis
 </t>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">The
-Thelocactus - fam. Cactacées (Cactus)
+          <t>The</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thelocactus - fam. Cactacées (Cactus)
 Thelocactus bicolor
 Thelocactus conothelos
 Thelocactus hastifer
@@ -571,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,8 +613,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tro
-Tropaeolum - Tropaéolacées
+          <t>Tro</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tropaeolum - Tropaéolacées
 Tropaeolum majus - Grande capucine
 Tropaeolum peregrinum - Capucine des Canaris
 Tropaeolum speciosum
@@ -606,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,8 +653,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tur
-Turbinicarpus - fam. Cactacées (Cactus)
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turbinicarpus - fam. Cactacées (Cactus)
 Turbinicarpus gautii
 Turbinicarpus gielsdorfianus
 Turbinicarpus horripilus
